--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_20-56.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_20-56.xlsx
@@ -161,6 +161,9 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -191,6 +194,9 @@
     <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
   </si>
   <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
   </si>
   <si>
     <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
+  </si>
+  <si>
+    <t>LEZBERG TRIO 40/10/25MG TAB</t>
   </si>
   <si>
     <t>MEGABIO 750 MG 5 F.C. TABS.</t>
@@ -1706,17 +1715,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>0.67000000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1732,17 +1741,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>1</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1758,17 +1767,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1784,17 +1793,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1810,17 +1819,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>110.22</v>
+        <v>55</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>0.34000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1836,17 +1845,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>48</v>
+        <v>110.22</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>0.17000000000000001</v>
+        <v>0.34000000000000002</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1854,7 +1863,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1862,17 +1871,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>1475</v>
+        <v>48</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>5</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1894,11 +1903,11 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>34</v>
+        <v>1475</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1920,11 +1929,11 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1940,13 +1949,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
@@ -1966,13 +1975,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>40</v>
+        <v>53.759999999999998</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
@@ -1992,17 +2001,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2024,7 +2033,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
@@ -2044,17 +2053,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2070,13 +2079,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
@@ -2088,7 +2097,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2096,13 +2105,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
@@ -2114,7 +2123,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2122,17 +2131,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2140,7 +2149,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2148,13 +2157,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
@@ -2174,17 +2183,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2200,17 +2209,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2226,17 +2235,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2244,7 +2253,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2252,17 +2261,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>7.0499999999999998</v>
+        <v>51</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
-        <v>0.050000000000000003</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2270,7 +2279,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2284,7 +2293,7 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>221.16</v>
+        <v>130</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
@@ -2296,7 +2305,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2304,17 +2313,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>0.5</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2322,7 +2331,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2330,17 +2339,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>160.55000000000001</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>1</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2356,17 +2365,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>13</v>
+        <v>221.16</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2374,7 +2383,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2382,17 +2391,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2400,7 +2409,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2408,17 +2417,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>20</v>
+        <v>160.55000000000001</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2426,7 +2435,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2434,17 +2443,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>115.2</v>
+        <v>13</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2460,17 +2469,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>28.710000000000001</v>
+        <v>192</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2486,13 +2495,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
@@ -2512,13 +2521,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>250</v>
+        <v>115.2</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
@@ -2538,13 +2547,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>18</v>
+        <v>28.710000000000001</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
@@ -2564,17 +2573,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2582,7 +2591,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2590,17 +2599,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2608,7 +2617,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2616,17 +2625,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2634,7 +2643,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2642,13 +2651,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
@@ -2660,7 +2669,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2668,17 +2677,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>40.5</v>
+        <v>5</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2686,7 +2695,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2694,13 +2703,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
@@ -2712,7 +2721,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2720,13 +2729,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
@@ -2738,7 +2747,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2746,17 +2755,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>25</v>
+        <v>40.5</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2764,7 +2773,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2772,17 +2781,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2790,7 +2799,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2798,17 +2807,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2816,7 +2825,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2824,13 +2833,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
@@ -2842,7 +2851,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2850,17 +2859,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2876,17 +2885,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2902,17 +2911,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2920,7 +2929,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2928,13 +2937,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
@@ -2946,7 +2955,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2954,17 +2963,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -2972,7 +2981,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2980,17 +2989,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -2998,7 +3007,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3006,7 +3015,7 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
@@ -3032,51 +3041,129 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="85" ht="26.25" customHeight="1">
-      <c r="K85" s="11">
-        <v>6253.8199999999997</v>
-      </c>
-      <c r="L85" s="11"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="11"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="12">
+    <row r="85" ht="25.5" customHeight="1">
+      <c r="A85" s="6">
+        <v>82</v>
+      </c>
+      <c t="s" r="B85" s="7">
         <v>116</v>
       </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c t="s" r="F86" s="13">
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c t="s" r="H85" s="8">
+        <v>106</v>
+      </c>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="9">
+        <v>45</v>
+      </c>
+      <c r="M85" s="9"/>
+      <c r="N85" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" ht="24.75" customHeight="1">
+      <c r="A86" s="6">
+        <v>83</v>
+      </c>
+      <c t="s" r="B86" s="7">
         <v>117</v>
       </c>
-      <c r="G86" s="13"/>
-      <c r="H86" s="14"/>
-      <c t="s" r="I86" s="15">
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c t="s" r="H86" s="8">
+        <v>106</v>
+      </c>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="9">
+        <v>20</v>
+      </c>
+      <c r="M86" s="9"/>
+      <c r="N86" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="6">
+        <v>84</v>
+      </c>
+      <c t="s" r="B87" s="7">
         <v>118</v>
       </c>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c t="s" r="H87" s="8">
+        <v>106</v>
+      </c>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="9">
+        <v>8</v>
+      </c>
+      <c r="M87" s="9"/>
+      <c r="N87" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" ht="25.5" customHeight="1">
+      <c r="K88" s="11">
+        <v>6568.5799999999999</v>
+      </c>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+    </row>
+    <row r="89" ht="17.25" customHeight="1">
+      <c t="s" r="A89" s="12">
+        <v>119</v>
+      </c>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c t="s" r="F89" s="13">
+        <v>120</v>
+      </c>
+      <c r="G89" s="13"/>
+      <c r="H89" s="14"/>
+      <c t="s" r="I89" s="15">
+        <v>121</v>
+      </c>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="254">
+  <mergeCells count="263">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3327,10 +3414,19 @@
     <mergeCell ref="B84:G84"/>
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="I86:N86"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="I89:N89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
